--- a/tests/vlaanderen/reference/resultaten/werk/concurrentie/arbeidsplaatsen/restdag/Ontpl_conc_Auto.xlsx
+++ b/tests/vlaanderen/reference/resultaten/werk/concurrentie/arbeidsplaatsen/restdag/Ontpl_conc_Auto.xlsx
@@ -388,16 +388,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.452336501409103</v>
+        <v>0.4532998755493539</v>
       </c>
       <c r="C2">
-        <v>0.627429013416762</v>
+        <v>0.6247489020384521</v>
       </c>
       <c r="D2">
-        <v>0.7119552434290941</v>
+        <v>0.7098241526097382</v>
       </c>
       <c r="E2">
-        <v>0.7367434074381236</v>
+        <v>0.7334881754064316</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -405,16 +405,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.472889442778751</v>
+        <v>0.4728680731960298</v>
       </c>
       <c r="C3">
-        <v>0.6384492320418135</v>
+        <v>0.6374184673032106</v>
       </c>
       <c r="D3">
-        <v>0.7184760233782439</v>
+        <v>0.7155518372566629</v>
       </c>
       <c r="E3">
-        <v>0.7396973253234428</v>
+        <v>0.7369496738843104</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -422,16 +422,16 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.4957214609243037</v>
+        <v>0.4930149867371041</v>
       </c>
       <c r="C4">
-        <v>0.6656639691852426</v>
+        <v>0.6626129769022936</v>
       </c>
       <c r="D4">
-        <v>0.7426941941787492</v>
+        <v>0.7396515998568782</v>
       </c>
       <c r="E4">
-        <v>0.7631709435925611</v>
+        <v>0.7602560484723868</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -439,16 +439,16 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.5766696705925596</v>
+        <v>0.5775338682106308</v>
       </c>
       <c r="C5">
-        <v>0.720711436062908</v>
+        <v>0.7200122765090208</v>
       </c>
       <c r="D5">
-        <v>0.7690387449955419</v>
+        <v>0.7668410534285477</v>
       </c>
       <c r="E5">
-        <v>0.7887697274634874</v>
+        <v>0.7861785817351283</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -456,16 +456,16 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.5642242463592838</v>
+        <v>0.5646114238160951</v>
       </c>
       <c r="C6">
-        <v>0.7155615851391309</v>
+        <v>0.7144241959553093</v>
       </c>
       <c r="D6">
-        <v>0.7667824751844368</v>
+        <v>0.7644877422023012</v>
       </c>
       <c r="E6">
-        <v>0.7873023466229573</v>
+        <v>0.7846734571989462</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -473,16 +473,16 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.6214482023948176</v>
+        <v>0.6222607695612322</v>
       </c>
       <c r="C7">
-        <v>0.7494422126493967</v>
+        <v>0.7489480418434787</v>
       </c>
       <c r="D7">
-        <v>0.7882170698630783</v>
+        <v>0.7856843859769028</v>
       </c>
       <c r="E7">
-        <v>0.7921910010933361</v>
+        <v>0.7892787435559668</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -490,16 +490,16 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.2517175552438042</v>
+        <v>0.2492231869568524</v>
       </c>
       <c r="C8">
-        <v>0.4642065922429857</v>
+        <v>0.4597712142751087</v>
       </c>
       <c r="D8">
-        <v>0.5997573588280085</v>
+        <v>0.5948629548070007</v>
       </c>
       <c r="E8">
-        <v>0.7131087732347487</v>
+        <v>0.709022198366438</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -507,16 +507,16 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>0.5288053679513205</v>
+        <v>0.5286358997867628</v>
       </c>
       <c r="C9">
-        <v>0.6789519433980566</v>
+        <v>0.6780164160477735</v>
       </c>
       <c r="D9">
-        <v>0.7475034275551753</v>
+        <v>0.7453565595481404</v>
       </c>
       <c r="E9">
-        <v>0.7674571355464832</v>
+        <v>0.7651098808327893</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -524,16 +524,16 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>0.5945367624220956</v>
+        <v>0.5960745203152207</v>
       </c>
       <c r="C10">
-        <v>0.7376730463218584</v>
+        <v>0.7369860057981762</v>
       </c>
       <c r="D10">
-        <v>0.7844513879967923</v>
+        <v>0.7814954067393087</v>
       </c>
       <c r="E10">
-        <v>0.7890101517808897</v>
+        <v>0.7863713395062196</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -541,16 +541,16 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>0.5973361910505895</v>
+        <v>0.5990363700050438</v>
       </c>
       <c r="C11">
-        <v>0.7393570674768551</v>
+        <v>0.7389962251113296</v>
       </c>
       <c r="D11">
-        <v>0.7849792761569867</v>
+        <v>0.7828152745360828</v>
       </c>
       <c r="E11">
-        <v>0.7902825285837873</v>
+        <v>0.78756876434718</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -558,16 +558,16 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>0.6109866873509028</v>
+        <v>0.6112096612008782</v>
       </c>
       <c r="C12">
-        <v>0.7474316541791274</v>
+        <v>0.7464344466847087</v>
       </c>
       <c r="D12">
-        <v>0.7883239554628541</v>
+        <v>0.7856065710047644</v>
       </c>
       <c r="E12">
-        <v>0.7914289261779067</v>
+        <v>0.7885821271855722</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -575,16 +575,16 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>0.5930795445787163</v>
+        <v>0.5945170037428875</v>
       </c>
       <c r="C13">
-        <v>0.7363001299823608</v>
+        <v>0.7356696593475156</v>
       </c>
       <c r="D13">
-        <v>0.7833474802953984</v>
+        <v>0.7805575362458407</v>
       </c>
       <c r="E13">
-        <v>0.7881705745577458</v>
+        <v>0.7855739167611877</v>
       </c>
     </row>
   </sheetData>

--- a/tests/vlaanderen/reference/resultaten/werk/concurrentie/arbeidsplaatsen/restdag/Ontpl_conc_Auto.xlsx
+++ b/tests/vlaanderen/reference/resultaten/werk/concurrentie/arbeidsplaatsen/restdag/Ontpl_conc_Auto.xlsx
@@ -388,16 +388,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.4532998755493539</v>
+        <v>0.4831499960849896</v>
       </c>
       <c r="C2">
-        <v>0.6247489020384521</v>
+        <v>0.6481152217167628</v>
       </c>
       <c r="D2">
-        <v>0.7098241526097382</v>
+        <v>0.723168665304872</v>
       </c>
       <c r="E2">
-        <v>0.7334881754064316</v>
+        <v>0.7428738266081906</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -405,16 +405,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.4728680731960298</v>
+        <v>0.5044256551842031</v>
       </c>
       <c r="C3">
-        <v>0.6374184673032106</v>
+        <v>0.6614835697473717</v>
       </c>
       <c r="D3">
-        <v>0.7155518372566629</v>
+        <v>0.7290325917100523</v>
       </c>
       <c r="E3">
-        <v>0.7369496738843104</v>
+        <v>0.7463819025479502</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -422,16 +422,16 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.4930149867371041</v>
+        <v>0.5238386746799286</v>
       </c>
       <c r="C4">
-        <v>0.6626129769022936</v>
+        <v>0.686674897387055</v>
       </c>
       <c r="D4">
-        <v>0.7396515998568782</v>
+        <v>0.7534191860044763</v>
       </c>
       <c r="E4">
-        <v>0.7602560484723868</v>
+        <v>0.7699562596260292</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -439,16 +439,16 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.5775338682106308</v>
+        <v>0.6169197763115375</v>
       </c>
       <c r="C5">
-        <v>0.7200122765090208</v>
+        <v>0.7474217523297062</v>
       </c>
       <c r="D5">
-        <v>0.7668410534285477</v>
+        <v>0.7813154601969541</v>
       </c>
       <c r="E5">
-        <v>0.7861785817351283</v>
+        <v>0.7962487799499285</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -456,16 +456,16 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.5646114238160951</v>
+        <v>0.6027649171051569</v>
       </c>
       <c r="C6">
-        <v>0.7144241959553093</v>
+        <v>0.741508040369947</v>
       </c>
       <c r="D6">
-        <v>0.7644877422023012</v>
+        <v>0.7788966201490836</v>
       </c>
       <c r="E6">
-        <v>0.7846734571989462</v>
+        <v>0.7947192688087488</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -473,16 +473,16 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.6222607695612322</v>
+        <v>0.6641650190029394</v>
       </c>
       <c r="C7">
-        <v>0.7489480418434787</v>
+        <v>0.7772848066723598</v>
       </c>
       <c r="D7">
-        <v>0.7856843859769028</v>
+        <v>0.800507487256723</v>
       </c>
       <c r="E7">
-        <v>0.7892787435559668</v>
+        <v>0.7993966827599528</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -490,16 +490,16 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.2492231869568524</v>
+        <v>0.2655549926585978</v>
       </c>
       <c r="C8">
-        <v>0.4597712142751087</v>
+        <v>0.4770173116373552</v>
       </c>
       <c r="D8">
-        <v>0.5948629548070007</v>
+        <v>0.606126462360837</v>
       </c>
       <c r="E8">
-        <v>0.709022198366438</v>
+        <v>0.7180895215873215</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -507,16 +507,16 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>0.5286358997867628</v>
+        <v>0.5642381162279333</v>
       </c>
       <c r="C9">
-        <v>0.6780164160477735</v>
+        <v>0.7037044247573736</v>
       </c>
       <c r="D9">
-        <v>0.7453565595481404</v>
+        <v>0.75941793639796</v>
       </c>
       <c r="E9">
-        <v>0.7651098808327893</v>
+        <v>0.7749148947119088</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -524,16 +524,16 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>0.5960745203152207</v>
+        <v>0.6356681456836951</v>
       </c>
       <c r="C10">
-        <v>0.7369860057981762</v>
+        <v>0.7646709075939094</v>
       </c>
       <c r="D10">
-        <v>0.7814954067393087</v>
+        <v>0.7962211528660872</v>
       </c>
       <c r="E10">
-        <v>0.7863713395062196</v>
+        <v>0.796455973792794</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -541,16 +541,16 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>0.5990363700050438</v>
+        <v>0.6385936188818586</v>
       </c>
       <c r="C11">
-        <v>0.7389962251113296</v>
+        <v>0.7666761451581852</v>
       </c>
       <c r="D11">
-        <v>0.7828152745360828</v>
+        <v>0.7975478595879739</v>
       </c>
       <c r="E11">
-        <v>0.78756876434718</v>
+        <v>0.797663049898691</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -558,16 +558,16 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>0.6112096612008782</v>
+        <v>0.6520636925742531</v>
       </c>
       <c r="C12">
-        <v>0.7464344466847087</v>
+        <v>0.7745554222486973</v>
       </c>
       <c r="D12">
-        <v>0.7856065710047644</v>
+        <v>0.8004431530328775</v>
       </c>
       <c r="E12">
-        <v>0.7885821271855722</v>
+        <v>0.7987059996499829</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -575,16 +575,16 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>0.5945170037428875</v>
+        <v>0.634076234566488</v>
       </c>
       <c r="C13">
-        <v>0.7356696593475156</v>
+        <v>0.76333231959312</v>
       </c>
       <c r="D13">
-        <v>0.7805575362458407</v>
+        <v>0.7952743077948078</v>
       </c>
       <c r="E13">
-        <v>0.7855739167611877</v>
+        <v>0.7956510506313477</v>
       </c>
     </row>
   </sheetData>

--- a/tests/vlaanderen/reference/resultaten/werk/concurrentie/arbeidsplaatsen/restdag/Ontpl_conc_Auto.xlsx
+++ b/tests/vlaanderen/reference/resultaten/werk/concurrentie/arbeidsplaatsen/restdag/Ontpl_conc_Auto.xlsx
@@ -394,7 +394,7 @@
         <v>0.6481152217167628</v>
       </c>
       <c r="D2">
-        <v>0.723168665304872</v>
+        <v>0.7231686653048719</v>
       </c>
       <c r="E2">
         <v>0.7428738266081906</v>
@@ -408,10 +408,10 @@
         <v>0.5044256551842031</v>
       </c>
       <c r="C3">
-        <v>0.6614835697473717</v>
+        <v>0.6614835697473718</v>
       </c>
       <c r="D3">
-        <v>0.7290325917100523</v>
+        <v>0.7290325917100521</v>
       </c>
       <c r="E3">
         <v>0.7463819025479502</v>
@@ -422,13 +422,13 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.5238386746799286</v>
+        <v>0.5238386746799287</v>
       </c>
       <c r="C4">
         <v>0.686674897387055</v>
       </c>
       <c r="D4">
-        <v>0.7534191860044763</v>
+        <v>0.7534191860044762</v>
       </c>
       <c r="E4">
         <v>0.7699562596260292</v>
@@ -442,7 +442,7 @@
         <v>0.6169197763115375</v>
       </c>
       <c r="C5">
-        <v>0.7474217523297062</v>
+        <v>0.7474217523297063</v>
       </c>
       <c r="D5">
         <v>0.7813154601969541</v>
@@ -473,10 +473,10 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.6641650190029394</v>
+        <v>0.6641650190029396</v>
       </c>
       <c r="C7">
-        <v>0.7772848066723598</v>
+        <v>0.77728480667236</v>
       </c>
       <c r="D7">
         <v>0.800507487256723</v>
@@ -490,10 +490,10 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.2655549926585978</v>
+        <v>0.2655549926585977</v>
       </c>
       <c r="C8">
-        <v>0.4770173116373552</v>
+        <v>0.4770173116373553</v>
       </c>
       <c r="D8">
         <v>0.606126462360837</v>
@@ -507,7 +507,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>0.5642381162279333</v>
+        <v>0.5642381162279334</v>
       </c>
       <c r="C9">
         <v>0.7037044247573736</v>
@@ -527,7 +527,7 @@
         <v>0.6356681456836951</v>
       </c>
       <c r="C10">
-        <v>0.7646709075939094</v>
+        <v>0.7646709075939097</v>
       </c>
       <c r="D10">
         <v>0.7962211528660872</v>
@@ -541,7 +541,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>0.6385936188818586</v>
+        <v>0.6385936188818588</v>
       </c>
       <c r="C11">
         <v>0.7666761451581852</v>
@@ -561,10 +561,10 @@
         <v>0.6520636925742531</v>
       </c>
       <c r="C12">
-        <v>0.7745554222486973</v>
+        <v>0.7745554222486974</v>
       </c>
       <c r="D12">
-        <v>0.8004431530328775</v>
+        <v>0.8004431530328774</v>
       </c>
       <c r="E12">
         <v>0.7987059996499829</v>
@@ -581,7 +581,7 @@
         <v>0.76333231959312</v>
       </c>
       <c r="D13">
-        <v>0.7952743077948078</v>
+        <v>0.7952743077948077</v>
       </c>
       <c r="E13">
         <v>0.7956510506313477</v>
